--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,25 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>however</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>tiny</t>
   </si>
   <si>
     <t>smaller</t>
@@ -76,9 +73,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -88,6 +82,18 @@
     <t>broken</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
@@ -97,90 +103,93 @@
     <t>ok</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -190,63 +199,66 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
   </si>
   <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
   </si>
   <si>
     <t>easy</t>
@@ -626,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -766,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
+        <v>0.8923076923076924</v>
+      </c>
+      <c r="L4">
         <v>58</v>
       </c>
-      <c r="K4">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.703125</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7043010752688172</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.703125</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.5797101449275363</v>
+        <v>0.5810616929698709</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.5566714490674318</v>
+        <v>0.524896265560166</v>
       </c>
       <c r="L10">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="M10">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>309</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>0.533195020746888</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L11">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>225</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6262135922330098</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C12">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.4680327868852459</v>
+        <v>0.4950819672131148</v>
       </c>
       <c r="L12">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="M12">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5630252100840336</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.3809523809523809</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L13">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,7 +1254,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5555555555555556</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -1263,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0.3795180722891566</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5238095238095238</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>0.3792048929663608</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5208333333333334</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.3416666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5014492753623189</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C17">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.2447552447552448</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4578313253012048</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>0.2265625</v>
+        <v>0.2421875</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4251968503937008</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,31 +1522,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K19">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4105263157894737</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>0.2088353413654618</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L20">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3828125</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>0.2063492063492063</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3809523809523809</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K22">
         <v>0.2</v>
@@ -1695,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3696682464454976</v>
+        <v>0.3984375</v>
       </c>
       <c r="C23">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>0.1885964912280702</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L23">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>925</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1754,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3483146067415731</v>
+        <v>0.3933649289099526</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,31 +1772,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0.1065627030539311</v>
+        <v>0.1850877192982456</v>
       </c>
       <c r="L24">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="M24">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1375</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1804,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.301980198019802</v>
+        <v>0.359375</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K25">
-        <v>0.09749303621169916</v>
+        <v>0.1187540558079169</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>324</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1854,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2525773195876289</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K26">
-        <v>0.09727626459143969</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>232</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2355072463768116</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C27">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,31 +1922,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K27">
-        <v>0.08579088471849866</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,13 +1954,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2222222222222222</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K28">
         <v>0.0804953560371517</v>
@@ -1995,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2088607594936709</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C29">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,25 +2022,25 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K29">
-        <v>0.05459387483355526</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M29">
         <v>42</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2045,25 +2054,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2065727699530517</v>
+        <v>0.215</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2071,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.195</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2089,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>161</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2097,13 +2106,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1910828025477707</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2115,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>127</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2123,25 +2132,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1884272997032641</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C33">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>547</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2149,25 +2158,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1815561959654179</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>284</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2175,13 +2184,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1740506329113924</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2193,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>261</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2201,25 +2210,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1479028697571744</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>386</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2227,25 +2236,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1428571428571428</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2253,13 +2262,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1371428571428571</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2271,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2279,25 +2288,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1176470588235294</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2305,13 +2314,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1129032258064516</v>
+        <v>0.140625</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2323,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>220</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2331,13 +2340,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1122448979591837</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2349,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>174</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2357,13 +2366,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09577464788732394</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2375,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>321</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2383,25 +2392,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.08767123287671233</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>333</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2409,25 +2418,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08705357142857142</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>409</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2435,25 +2444,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.07885304659498207</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2461,25 +2470,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07781456953642384</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>557</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2487,25 +2496,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06257982120051085</v>
+        <v>0.09213483146067415</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F47">
-        <v>0.8200000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>734</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2513,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.05411764705882353</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C48">
         <v>23</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>402</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2539,25 +2548,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.05348837209302326</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D49">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>407</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2565,25 +2574,103 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.049079754601227</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E50">
+        <v>0.02</v>
+      </c>
+      <c r="F50">
+        <v>0.98</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.05386416861826698</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>0.23</v>
+      </c>
+      <c r="F51">
+        <v>0.77</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.05236270753512133</v>
+      </c>
+      <c r="C52">
+        <v>41</v>
+      </c>
+      <c r="D52">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <v>0.21</v>
+      </c>
+      <c r="F52">
+        <v>0.79</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.0460122699386503</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+      <c r="E53">
         <v>0.09</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>0.91</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>620</v>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
